--- a/2016昆山幼儿园科技/模板/成绩册模板.xlsx
+++ b/2016昆山幼儿园科技/模板/成绩册模板.xlsx
@@ -1549,7 +1549,7 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.1" right="0.1" top="0.3" bottom="0.5" header="0.3" footer="0.2"/>
+  <pageMargins left="0.1" right="0.1" top="0.25" bottom="0.5" header="0.25" footer="0.2"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="0" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
@@ -1670,7 +1670,7 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.1" right="0.1" top="0.3" bottom="0.5" header="0.3" footer="0.2"/>
+  <pageMargins left="0.1" right="0.1" top="0.25" bottom="0.5" header="0.25" footer="0.2"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="0" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
@@ -3298,7 +3298,7 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.1" right="0.1" top="0.3" bottom="0.5" header="0.3" footer="0.2"/>
+  <pageMargins left="0.1" right="0.1" top="0.25" bottom="0.5" header="0.25" footer="0.2"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="0" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
